--- a/verif/CV32E40P/SimulationVerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
+++ b/verif/CV32E40P/SimulationVerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
@@ -458,7 +458,7 @@
     <t xml:space="preserve">Directed Self-Checking</t>
   </si>
   <si>
-    <t xml:space="preserve">Do we need coverage for sequence of MULH[[S]U] and MUL instructions?</t>
+    <t xml:space="preserve">No need coverage for sequence of MULH[[S]U] and MUL instructions as the CV32E40P does not perform run-time fusing of any instructions.</t>
   </si>
   <si>
     <t xml:space="preserve">Unprivileged ISA
@@ -1102,10 +1102,10 @@
   </sheetPr>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1268,7 +1268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="true" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="6" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="15" t="s">
@@ -1290,7 +1290,7 @@
         <v>17</v>
       </c>
       <c r="I6" s="18"/>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2261,15 +2261,15 @@
   </sheetPr>
   <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,11 +2382,11 @@
   </sheetPr>
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.3"/>
